--- a/default-files/Example_ExcelReference/excel/沙盒/Localization/english/J集市道具信息表_BazzarItems_hotfix.xlsx
+++ b/default-files/Example_ExcelReference/excel/沙盒/Localization/english/J集市道具信息表_BazzarItems_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DDA515-8AA8-4B7D-A3EF-EBF12D089ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D727D-8971-423C-99D9-6FC0F72CB05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="4" r:id="rId1"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
